--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_type[道具类型].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_type[道具类型].xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsType" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -35,10 +35,7 @@
     <t>icon_res</t>
   </si>
   <si>
-    <t>name_cn</t>
-  </si>
-  <si>
-    <t>name_en</t>
+    <t>name</t>
   </si>
   <si>
     <t>remark</t>
@@ -56,10 +53,7 @@
     <t>图标</t>
   </si>
   <si>
-    <t>名字中文</t>
-  </si>
-  <si>
-    <t>名字英文</t>
+    <t>名字</t>
   </si>
   <si>
     <t>备注</t>
@@ -71,43 +65,28 @@
     <t>帽子</t>
   </si>
   <si>
-    <t>Hat</t>
-  </si>
-  <si>
     <t>ui_creature_class_2</t>
   </si>
   <si>
     <t>衣服</t>
   </si>
   <si>
-    <t>Clothes</t>
-  </si>
-  <si>
     <t>ui_creature_class_3</t>
   </si>
   <si>
     <t>裤子</t>
   </si>
   <si>
-    <t>Pants</t>
-  </si>
-  <si>
     <t>ui_creature_class_4</t>
   </si>
   <si>
     <t>鞋子</t>
   </si>
   <si>
-    <t>Shoes</t>
-  </si>
-  <si>
     <t>ui_creature_class_5</t>
   </si>
   <si>
     <t>武器</t>
-  </si>
-  <si>
-    <t>Weapon</t>
   </si>
 </sst>
 </file>
@@ -1075,21 +1054,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="28.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="5" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1102,42 +1081,33 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1145,13 +1115,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>20000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1159,13 +1129,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>20000000002</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1173,13 +1143,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>20000000003</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1187,13 +1157,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>20000000004</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1201,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>20000000010</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_type[道具类型].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_type[道具类型].xlsx
@@ -35,7 +35,7 @@
     <t>icon_res</t>
   </si>
   <si>
-    <t>name</t>
+    <t>name[language]</t>
   </si>
   <si>
     <t>remark</t>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_type[道具类型].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_type[道具类型].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsType" sheetId="1" r:id="rId1"/>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1066,6 +1066,7 @@
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="42.875" customWidth="1"/>
+    <col min="5" max="5" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1118,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>20000000001</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1132,7 +1133,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>20000000002</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1146,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>20000000003</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1160,7 +1161,7 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>20000000004</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1174,7 +1175,7 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>20000000010</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_type[道具类型].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_type[道具类型].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>ui_creature_class_5</t>
+  </si>
+  <si>
+    <t>鼻环</t>
   </si>
   <si>
     <t>武器</t>
@@ -1054,10 +1057,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1169,19 +1172,32 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1"/>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="20" ht="15" customHeight="1"/>
     <row r="21" ht="15" customHeight="1"/>
     <row r="22" ht="15" customHeight="1"/>
@@ -1192,7 +1208,7 @@
     <row r="27" ht="15" customHeight="1"/>
     <row r="28" ht="15" customHeight="1"/>
     <row r="29" ht="15" customHeight="1"/>
-    <row r="61" ht="12" customHeight="1"/>
+    <row r="30" ht="15" customHeight="1"/>
     <row r="62" ht="12" customHeight="1"/>
     <row r="63" ht="12" customHeight="1"/>
     <row r="64" ht="12" customHeight="1"/>
@@ -1201,6 +1217,7 @@
     <row r="67" ht="12" customHeight="1"/>
     <row r="68" ht="12" customHeight="1"/>
     <row r="69" ht="12" customHeight="1"/>
+    <row r="70" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_type[道具类型].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_type[道具类型].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsType" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -59,34 +59,37 @@
     <t>备注</t>
   </si>
   <si>
-    <t>ui_creature_class_1</t>
+    <t>ui_equip_12</t>
   </si>
   <si>
     <t>帽子</t>
   </si>
   <si>
-    <t>ui_creature_class_2</t>
+    <t>ui_equip_13</t>
   </si>
   <si>
     <t>衣服</t>
   </si>
   <si>
-    <t>ui_creature_class_3</t>
+    <t>ui_equip_11</t>
   </si>
   <si>
     <t>裤子</t>
   </si>
   <si>
-    <t>ui_creature_class_4</t>
+    <t>ui_equip_8</t>
   </si>
   <si>
     <t>鞋子</t>
   </si>
   <si>
-    <t>ui_creature_class_5</t>
+    <t>ui_equip_6</t>
   </si>
   <si>
     <t>鼻环</t>
+  </si>
+  <si>
+    <t>ui_equip_1</t>
   </si>
   <si>
     <t>武器</t>
@@ -1060,7 +1063,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1189,13 +1192,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1"/>
